--- a/Team-Data/2014-15/1-1-2014-15.xlsx
+++ b/Team-Data/2014-15/1-1-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>4.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
@@ -756,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -783,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -792,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
@@ -813,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -935,7 +1002,7 @@
         <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -947,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -1001,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -1108,34 +1175,34 @@
         <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
         <v>22</v>
@@ -1153,16 +1220,16 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
@@ -1308,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1326,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>21</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
@@ -1365,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.697</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1412,34 +1479,34 @@
         <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L6" t="n">
         <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O6" t="n">
         <v>21.2</v>
       </c>
       <c r="P6" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S6" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T6" t="n">
         <v>45.6</v>
@@ -1448,49 +1515,49 @@
         <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W6" t="n">
         <v>5.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC6" t="n">
         <v>4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1499,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
         <v>4</v>
@@ -1526,16 +1593,16 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1675,22 +1742,22 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>11</v>
@@ -1702,7 +1769,7 @@
         <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.719</v>
+        <v>0.697</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
         <v>0.478</v>
@@ -1785,31 +1852,31 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.355</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.3</v>
@@ -1818,7 +1885,7 @@
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
@@ -1827,28 +1894,28 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.9</v>
+        <v>109.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1869,13 +1936,13 @@
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>15</v>
@@ -1884,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>0.394</v>
+        <v>0.406</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,79 +2025,79 @@
         <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L9" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M9" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="R9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T9" t="n">
-        <v>46.1</v>
+        <v>45.8</v>
       </c>
       <c r="U9" t="n">
         <v>20.8</v>
       </c>
       <c r="V9" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB9" t="n">
         <v>101.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2039,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
@@ -2054,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>22</v>
@@ -2069,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
         <v>19</v>
@@ -2078,10 +2145,10 @@
         <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2090,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>21</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2230,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -2263,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2442,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" t="n">
         <v>5</v>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="H12" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J12" t="n">
-        <v>82.8</v>
+        <v>82.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.43</v>
@@ -2513,19 +2580,19 @@
         <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>25.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R12" t="n">
         <v>12.2</v>
@@ -2534,46 +2601,46 @@
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2585,7 +2652,7 @@
         <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,22 +2661,22 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
@@ -2624,22 +2691,22 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2770,13 +2837,13 @@
         <v>25</v>
       </c>
       <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN13" t="n">
         <v>20</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2943,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>20</v>
@@ -2961,19 +3028,19 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT14" t="n">
         <v>25</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.323</v>
+        <v>0.313</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>87.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M15" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
@@ -3092,40 +3159,40 @@
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>103</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
       </c>
       <c r="AH15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
@@ -3134,19 +3201,19 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM15" t="n">
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3155,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>16</v>
@@ -3170,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3313,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3325,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3340,13 +3407,13 @@
         <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>10</v>
@@ -3364,7 +3431,7 @@
         <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3537,7 +3604,7 @@
         <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3668,25 +3735,25 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
         <v>9</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.161</v>
+        <v>0.167</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J19" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P19" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.72</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U19" t="n">
         <v>22.5</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.1</v>
+        <v>-10.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,13 +3917,13 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3868,25 +3935,25 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
         <v>12</v>
@@ -3904,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.6</v>
@@ -3972,76 +4039,76 @@
         <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.753</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>43.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>19.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>101.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK20" t="n">
         <v>16</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
         <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4077,25 +4144,25 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>6</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="BA20" t="n">
         <v>27</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4217,7 +4284,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
@@ -4247,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
@@ -4262,19 +4329,19 @@
         <v>21</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>1.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4393,10 +4460,10 @@
         <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>18</v>
@@ -4417,7 +4484,7 @@
         <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>12</v>
@@ -4426,7 +4493,7 @@
         <v>19</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
@@ -4441,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.382</v>
+        <v>0.371</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P23" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
@@ -4548,40 +4615,40 @@
         <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG23" t="n">
         <v>22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
@@ -4590,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4605,43 +4672,43 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR23" t="n">
         <v>27</v>
       </c>
-      <c r="AR23" t="n">
-        <v>28</v>
-      </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU23" t="n">
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4821,7 @@
         <v>30</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,19 +4851,19 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>28</v>
@@ -4808,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4978,19 +5045,19 @@
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5169,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
         <v>7</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5216,106 +5283,106 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.424</v>
+        <v>0.406</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.461</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
         <v>23.8</v>
       </c>
       <c r="P27" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S27" t="n">
         <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W27" t="n">
         <v>6.2</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
         <v>25.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5354,19 +5421,19 @@
         <v>26</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5398,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.576</v>
+        <v>0.588</v>
       </c>
       <c r="H28" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="I28" t="n">
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.368</v>
+        <v>0.373</v>
       </c>
       <c r="O28" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="T28" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.6</v>
@@ -5470,13 +5537,13 @@
         <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5491,31 +5558,31 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5530,28 +5597,28 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC28" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>3</v>
@@ -5676,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5700,7 +5767,7 @@
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5709,13 +5776,13 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV29" t="n">
         <v>1</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5885,10 +5952,10 @@
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>2.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH31" t="n">
         <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6070,7 +6137,7 @@
         <v>10</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU31" t="n">
         <v>4</v>
@@ -6085,13 +6152,13 @@
         <v>10</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>23</v>
       </c>
       <c r="BA31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-1-2014-15</t>
+          <t>2015-01-01</t>
         </is>
       </c>
     </row>
